--- a/etnico_cuenta_clientes.xlsx
+++ b/etnico_cuenta_clientes.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -42,8 +42,14 @@
         <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +57,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +516,5629 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4992</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3128.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3128.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4996</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12439.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>12439.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10430.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10430.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8445.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>8445.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1691</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4981</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8517</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4982</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3641.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>3641.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4776.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>4776.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4107</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5374.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>5374.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4972</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23372.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23372.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8442</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4544.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>4544.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4943</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3785.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3767.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4606.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4589</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4945</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15006.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14989.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4955</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22339</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22339</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4935</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10071.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10048.27</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4931</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5601.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5577.97</v>
+      </c>
+      <c r="H21" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4928</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6359.18</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6359.18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4934</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13348</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13348</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7813.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7789.87</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4922</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15540</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12808.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>2731.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8187</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8199.799999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8173.82</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4548.94</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4522.96</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9962.200000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9962.200000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4887</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3688.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3670.83</v>
+      </c>
+      <c r="H30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8401.200000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>8401.200000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17259.32</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17241.82</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1861.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1861.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6317.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>6317.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4882</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12495</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12495</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16712.92</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16712.98</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-17.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4859</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2742.5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2198.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Abono</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8405.799999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8405.799999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4851</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5897.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5551.96</v>
+      </c>
+      <c r="H39" t="n">
+        <v>15</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>330.44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4855</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7145.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7145.8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4838</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2729.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2729.2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4853</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16592.76</v>
+      </c>
+      <c r="G42" t="n">
+        <v>16575.27</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6167.8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6144.47</v>
+      </c>
+      <c r="H43" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>16</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4817</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3459</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3459</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5390.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4360.58</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1014.72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2549.1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2549.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9283.08</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9259.75</v>
+      </c>
+      <c r="H48" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4809</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8910</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8910</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4808</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7505</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7496.67</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4796</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4977</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4977</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3075</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3057.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4794</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5610.7</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5587.37</v>
+      </c>
+      <c r="H53" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4793</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3820.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3805.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4785</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1961.67</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7524</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4779</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5075.04</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5057.54</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8461.799999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8461.799999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4774</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3881</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3881</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10711.6</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10694.1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4758</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7380</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7370</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4756</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5531.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5514</v>
+      </c>
+      <c r="H62" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4744</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>78</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8327.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>8327.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4747</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3493.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3493.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4750</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4997.4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4979.9</v>
+      </c>
+      <c r="H65" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4748</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4490.4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4482.07</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4741</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4411.16</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4399.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>11247.7</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11247.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4736</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7305</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7295</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4864.34</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4377.06</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4365.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3779.25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3767.59</v>
+      </c>
+      <c r="H72" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4708</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3569.15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3557.49</v>
+      </c>
+      <c r="H73" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4435.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4423.84</v>
+      </c>
+      <c r="H74" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4121.79</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4104.76</v>
+      </c>
+      <c r="H75" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4023</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4023</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8450.799999999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>8430.799999999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>20</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3343.1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3237.6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7480</v>
+      </c>
+      <c r="H79" t="n">
+        <v>20</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4655</v>
+      </c>
+      <c r="H80" t="n">
+        <v>20</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10563.8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10563.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7017.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6997.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>20</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4447</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4429.97</v>
+      </c>
+      <c r="H83" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4707</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9808.200000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9808.200000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4399.85</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4385.85</v>
+      </c>
+      <c r="H85" t="n">
+        <v>14</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3489.6</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3489.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1264</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1264</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4862.95</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4848.95</v>
+      </c>
+      <c r="H88" t="n">
+        <v>14</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Century Global PTE LTDA </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4683</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3300</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3300</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7203.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7189.7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>14</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4155.64</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4138.61</v>
+      </c>
+      <c r="H91" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1374.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1374.9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4271</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4257</v>
+      </c>
+      <c r="H93" t="n">
+        <v>14</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2926</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2901</v>
+      </c>
+      <c r="H94" t="n">
+        <v>25</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4664</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9940.799999999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9940.799999999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1768</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1750.97</v>
+      </c>
+      <c r="H96" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4650</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12282</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12268</v>
+      </c>
+      <c r="H97" t="n">
+        <v>14</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2943</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2800.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1412.28</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>-209.52</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7831</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7831</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3484.5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3467</v>
+      </c>
+      <c r="H101" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5210</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5185</v>
+      </c>
+      <c r="H102" t="n">
+        <v>25</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2463</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2445.97</v>
+      </c>
+      <c r="H103" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2645</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2539.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4780</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4762.5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1757.86</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1740.83</v>
+      </c>
+      <c r="H106" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1968.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1951</v>
+      </c>
+      <c r="H107" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1538.05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2655</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2637.97</v>
+      </c>
+      <c r="H109" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Pagada</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Prime flowers importacao e exportacao flores e frutas LTDA</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>255144</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>133</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3552.5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Pendiente Pago</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>3552.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Abdullatif Alothman General Trading And Contracting Company</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>34188.3</v>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>34138.3</v>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Barakat Vegetables And Fruits</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>104833.87</v>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>35189.49</v>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>69500.17999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Barnier Sarl</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>34109</v>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>26800</v>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Berry Mount Vegetables And Fruit Trading Llc</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>33519.2</v>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>31946.54</v>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>1345.16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Canada Wide Fruit Wholesalers</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>256592.7</v>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>232462.58</v>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>594.4</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>23535.72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Century Global PTE LTDA </t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>3300</v>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>3300</v>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Danube Star Company For Bakeries And Marketing</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>5988.1</v>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>5777.1</v>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Llc Tropical Star</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>184665.1</v>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>169494.2</v>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>15170.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>1412.28</v>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>1621.8</v>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-209.52</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Luz Mery Melo Mejia (Cm Foodmarket Srl)</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>8327.5</v>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>8327.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Mhs International Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>26705.65</v>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>10786.05</v>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>15919.6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Prime flowers importacao e exportacao flores e frutas LTDA</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Etnico</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>-----------------</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>Total Facturas</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>3552.5</v>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Total Pagado Cliente</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>Total Comisiones Banc</t>
+        </is>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>3552.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
